--- a/data/interim/monitor.xlsx
+++ b/data/interim/monitor.xlsx
@@ -422,13 +422,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>44469.45195979597</v>
+        <v>44469.51438932803</v>
       </c>
       <c r="C2" s="2">
-        <v>44469.45227204602</v>
+        <v>44469.51473591151</v>
       </c>
       <c r="D2" s="3">
-        <v>0.0003122500462962963</v>
+        <v>0.0003465834837962963</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -439,13 +439,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>44469.45227206592</v>
+        <v>44469.51473595767</v>
       </c>
       <c r="C3" s="2">
-        <v>44469.45253568406</v>
+        <v>44469.51505631653</v>
       </c>
       <c r="D3" s="3">
-        <v>0.0002636181481481481</v>
+        <v>0.0003203588541666667</v>
       </c>
       <c r="E3">
         <v>1</v>

--- a/data/interim/monitor.xlsx
+++ b/data/interim/monitor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>model</t>
   </si>
@@ -394,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,33 +422,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>44469.51438932803</v>
+        <v>44470.65116304845</v>
       </c>
       <c r="C2" s="2">
-        <v>44469.51473591151</v>
+        <v>44470.65248999258</v>
       </c>
       <c r="D2" s="3">
-        <v>0.0003465834837962963</v>
+        <v>0.001326944131944444</v>
       </c>
       <c r="E2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44469.51473595767</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44469.51505631653</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.0003203588541666667</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
